--- a/biology/Zoologie/Abraxas_sylvata/Abraxas_sylvata.xlsx
+++ b/biology/Zoologie/Abraxas_sylvata/Abraxas_sylvata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraxas sylvata, la Zérène de l'orme, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Ennominae.
 </t>
@@ -511,7 +523,9 @@
           <t>Repartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce univoltine, elle était considérée comme rare en Irlande du Nord jusqu'à la fin des années 1990. L'imago peut être trouvé en juin-juillet depuis l'Europe jusqu'au Japon.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très localisé en France, ce papillon vit dans les forêts, les buissons, les zones humides et parfois les parcs plantés d'arbres à feuilles caduques.La chenille se nourrit de diverses espèces d'ormes. C'est la chrysalide qui hiverne.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			MHNT ♂
@@ -608,7 +626,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Phalaena sylvata Scopoli, 1763
 Phalaena ulmata Fabricius, 1775
